--- a/CheckLists/Olya_News.XLSX
+++ b/CheckLists/Olya_News.XLSX
@@ -580,7 +580,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -611,52 +611,72 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
